--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H2">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I2">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J2">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>10.50203300997356</v>
+        <v>6.798372949929999</v>
       </c>
       <c r="R2">
-        <v>94.51829708976199</v>
+        <v>61.18535654937</v>
       </c>
       <c r="S2">
-        <v>0.1305281824384348</v>
+        <v>0.08179086832500301</v>
       </c>
       <c r="T2">
-        <v>0.1413278567100953</v>
+        <v>0.0892857092267668</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H3">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I3">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J3">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>23.67784593882789</v>
+        <v>21.73112645840233</v>
       </c>
       <c r="R3">
-        <v>213.100613449451</v>
+        <v>195.580138125621</v>
       </c>
       <c r="S3">
-        <v>0.2942883717388222</v>
+        <v>0.2614460424286483</v>
       </c>
       <c r="T3">
-        <v>0.3186372785981945</v>
+        <v>0.2854034417389513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H4">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I4">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J4">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>4.741537032525223</v>
+        <v>5.406543278631333</v>
       </c>
       <c r="R4">
-        <v>42.673833292727</v>
+        <v>48.658889507682</v>
       </c>
       <c r="S4">
-        <v>0.0589318477891173</v>
+        <v>0.06504583856355198</v>
       </c>
       <c r="T4">
-        <v>0.06380776614222643</v>
+        <v>0.07100626203550338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H5">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I5">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J5">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>6.533135319877833</v>
+        <v>8.908494807098498</v>
       </c>
       <c r="R5">
-        <v>39.198811919267</v>
+        <v>53.45096884259099</v>
       </c>
       <c r="S5">
-        <v>0.08119935236521822</v>
+        <v>0.1071776336937898</v>
       </c>
       <c r="T5">
-        <v>0.05861176348607965</v>
+        <v>0.07799918037770577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H6">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I6">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J6">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>6.108062768939444</v>
+        <v>3.436316180640334</v>
       </c>
       <c r="R6">
-        <v>54.97256492045499</v>
+        <v>30.926845625763</v>
       </c>
       <c r="S6">
-        <v>0.07591618981699874</v>
+        <v>0.04134213970369553</v>
       </c>
       <c r="T6">
-        <v>0.08219736302153512</v>
+        <v>0.04513049366011111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H7">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I7">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J7">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>4.130746161185555</v>
+        <v>2.913533835716667</v>
       </c>
       <c r="R7">
-        <v>37.17671545067</v>
+        <v>26.22180452145</v>
       </c>
       <c r="S7">
-        <v>0.05134042028072526</v>
+        <v>0.03505257273653934</v>
       </c>
       <c r="T7">
-        <v>0.05558823715554845</v>
+        <v>0.03826458724669164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H8">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I8">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J8">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
         <v>9.313165472253889</v>
@@ -948,10 +948,10 @@
         <v>83.818489250285</v>
       </c>
       <c r="S8">
-        <v>0.1157519273351388</v>
+        <v>0.1120462052376702</v>
       </c>
       <c r="T8">
-        <v>0.1253290400182639</v>
+        <v>0.1223134697758803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,13 +977,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H9">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I9">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J9">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>1.864980416327222</v>
+        <v>2.317046577552222</v>
       </c>
       <c r="R9">
-        <v>16.784823746945</v>
+        <v>20.85341919797</v>
       </c>
       <c r="S9">
-        <v>0.02317955997617653</v>
+        <v>0.02787626582466677</v>
       </c>
       <c r="T9">
-        <v>0.02509739636083006</v>
+        <v>0.0304306851818615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,13 +1039,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H10">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I10">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J10">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>2.569666617640833</v>
+        <v>3.817854836289166</v>
       </c>
       <c r="R10">
-        <v>15.417999705845</v>
+        <v>22.907129017735</v>
       </c>
       <c r="S10">
-        <v>0.03193799836230214</v>
+        <v>0.04593241125468388</v>
       </c>
       <c r="T10">
-        <v>0.02305366178058213</v>
+        <v>0.03342759405262596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1101,13 +1101,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H11">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I11">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J11">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>2.402473579269444</v>
+        <v>1.472679350817222</v>
       </c>
       <c r="R11">
-        <v>21.622262213425</v>
+        <v>13.254114157355</v>
       </c>
       <c r="S11">
-        <v>0.02985998133509877</v>
+        <v>0.01771772801444831</v>
       </c>
       <c r="T11">
-        <v>0.03233054413734286</v>
+        <v>0.01934127787188905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H12">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I12">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J12">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N12">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O12">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P12">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q12">
-        <v>1.754525975061667</v>
+        <v>1.723576815993333</v>
       </c>
       <c r="R12">
-        <v>10.52715585037</v>
+        <v>15.51219134394</v>
       </c>
       <c r="S12">
-        <v>0.02180673840468139</v>
+        <v>0.0207362622561609</v>
       </c>
       <c r="T12">
-        <v>0.01574065995045403</v>
+        <v>0.02263641308827605</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H13">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I13">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J13">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P13">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q13">
-        <v>3.955747967439167</v>
+        <v>5.509445572489112</v>
       </c>
       <c r="R13">
-        <v>23.734487804635</v>
+        <v>49.58501015240201</v>
       </c>
       <c r="S13">
-        <v>0.0491653941559709</v>
+        <v>0.06628385066280715</v>
       </c>
       <c r="T13">
-        <v>0.0354888354405646</v>
+        <v>0.07235771838481229</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H14">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I14">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J14">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N14">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O14">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P14">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q14">
-        <v>0.7921466136491667</v>
+        <v>1.370709244453778</v>
       </c>
       <c r="R14">
-        <v>4.752879681895</v>
+        <v>12.336383200084</v>
       </c>
       <c r="S14">
-        <v>0.009845470644225973</v>
+        <v>0.01649093101403589</v>
       </c>
       <c r="T14">
-        <v>0.00710671181480626</v>
+        <v>0.01800206430804909</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H15">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I15">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J15">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N15">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O15">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P15">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q15">
-        <v>1.09146063494875</v>
+        <v>2.258551454590333</v>
       </c>
       <c r="R15">
-        <v>4.365842539795</v>
+        <v>13.551308727542</v>
       </c>
       <c r="S15">
-        <v>0.01356559941752831</v>
+        <v>0.02717251406890587</v>
       </c>
       <c r="T15">
-        <v>0.006527997095599597</v>
+        <v>0.01977496379731272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1405,49 +1405,359 @@
         <v>1</v>
       </c>
       <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1864953333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.559486</v>
+      </c>
+      <c r="I16">
+        <v>0.1411649414213912</v>
+      </c>
+      <c r="J16">
+        <v>0.1442129961972698</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.671440333333334</v>
+      </c>
+      <c r="N16">
+        <v>14.014321</v>
+      </c>
+      <c r="O16">
+        <v>0.07424919611019735</v>
+      </c>
+      <c r="P16">
+        <v>0.079339843984437</v>
+      </c>
+      <c r="Q16">
+        <v>0.871201822111778</v>
+      </c>
+      <c r="R16">
+        <v>7.840816399006001</v>
+      </c>
+      <c r="S16">
+        <v>0.0104813834194814</v>
+      </c>
+      <c r="T16">
+        <v>0.01144183661881959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.5</v>
       </c>
-      <c r="G16">
-        <v>0.1339025</v>
-      </c>
-      <c r="H16">
-        <v>0.267805</v>
-      </c>
-      <c r="I16">
-        <v>0.1070661685619672</v>
-      </c>
-      <c r="J16">
-        <v>0.07401909258930148</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.620811666666666</v>
-      </c>
-      <c r="N16">
-        <v>22.862435</v>
-      </c>
-      <c r="O16">
-        <v>0.1184591370916582</v>
-      </c>
-      <c r="P16">
-        <v>0.123682795446755</v>
-      </c>
-      <c r="Q16">
-        <v>1.020445734195833</v>
-      </c>
-      <c r="R16">
-        <v>6.122674405175</v>
-      </c>
-      <c r="S16">
-        <v>0.01268296593956066</v>
-      </c>
-      <c r="T16">
-        <v>0.009154888287876991</v>
+      <c r="G17">
+        <v>0.0837685</v>
+      </c>
+      <c r="H17">
+        <v>0.167537</v>
+      </c>
+      <c r="I17">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J17">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.24193</v>
+      </c>
+      <c r="N17">
+        <v>27.72579</v>
+      </c>
+      <c r="O17">
+        <v>0.1468938537243544</v>
+      </c>
+      <c r="P17">
+        <v>0.1569651396557324</v>
+      </c>
+      <c r="Q17">
+        <v>0.7741826132049999</v>
+      </c>
+      <c r="R17">
+        <v>4.64509567923</v>
+      </c>
+      <c r="S17">
+        <v>0.00931415040665118</v>
+      </c>
+      <c r="T17">
+        <v>0.006778430093997892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0837685</v>
+      </c>
+      <c r="H18">
+        <v>0.167537</v>
+      </c>
+      <c r="I18">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J18">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>29.54200233333333</v>
+      </c>
+      <c r="N18">
+        <v>88.626007</v>
+      </c>
+      <c r="O18">
+        <v>0.469548954544906</v>
+      </c>
+      <c r="P18">
+        <v>0.5017420086455576</v>
+      </c>
+      <c r="Q18">
+        <v>2.474689222459833</v>
+      </c>
+      <c r="R18">
+        <v>14.848135334759</v>
+      </c>
+      <c r="S18">
+        <v>0.02977285621578033</v>
+      </c>
+      <c r="T18">
+        <v>0.02166737874591374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0837685</v>
+      </c>
+      <c r="H19">
+        <v>0.167537</v>
+      </c>
+      <c r="I19">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J19">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.349831333333333</v>
+      </c>
+      <c r="N19">
+        <v>22.049494</v>
+      </c>
+      <c r="O19">
+        <v>0.1168203014713749</v>
+      </c>
+      <c r="P19">
+        <v>0.1248296948454213</v>
+      </c>
+      <c r="Q19">
+        <v>0.6156843460463333</v>
+      </c>
+      <c r="R19">
+        <v>3.694106076278</v>
+      </c>
+      <c r="S19">
+        <v>0.007407266069120222</v>
+      </c>
+      <c r="T19">
+        <v>0.005390683320007327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.0837685</v>
+      </c>
+      <c r="H20">
+        <v>0.167537</v>
+      </c>
+      <c r="I20">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J20">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.1104985</v>
+      </c>
+      <c r="N20">
+        <v>24.220997</v>
+      </c>
+      <c r="O20">
+        <v>0.1924876941491673</v>
+      </c>
+      <c r="P20">
+        <v>0.1371233128688515</v>
+      </c>
+      <c r="Q20">
+        <v>1.01447829359725</v>
+      </c>
+      <c r="R20">
+        <v>4.057913174388999</v>
+      </c>
+      <c r="S20">
+        <v>0.01220513513178779</v>
+      </c>
+      <c r="T20">
+        <v>0.005921574641207072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0837685</v>
+      </c>
+      <c r="H21">
+        <v>0.167537</v>
+      </c>
+      <c r="I21">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J21">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.671440333333334</v>
+      </c>
+      <c r="N21">
+        <v>14.014321</v>
+      </c>
+      <c r="O21">
+        <v>0.07424919611019735</v>
+      </c>
+      <c r="P21">
+        <v>0.079339843984437</v>
+      </c>
+      <c r="Q21">
+        <v>0.3913195495628334</v>
+      </c>
+      <c r="R21">
+        <v>2.347917297377</v>
+      </c>
+      <c r="S21">
+        <v>0.004707944972572114</v>
+      </c>
+      <c r="T21">
+        <v>0.003426235833617244</v>
       </c>
     </row>
   </sheetData>
